--- a/Assets/Resources/Cfg/StateDataCfg.xlsx
+++ b/Assets/Resources/Cfg/StateDataCfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -31,6 +31,9 @@
     <t>StateDes</t>
   </si>
   <si>
+    <t>ReduceOverTime</t>
+  </si>
+  <si>
     <t>//状态ID</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>//状态描述</t>
+  </si>
+  <si>
+    <t>//是否每回合递减</t>
   </si>
   <si>
     <t>灵体</t>
@@ -69,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -80,6 +86,104 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -100,36 +204,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,53 +220,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,37 +228,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +254,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -266,138 +428,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,30 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +445,35 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -453,30 +488,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -499,28 +510,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,133 +563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,24 +1023,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
-    <col min="6" max="16371" width="8.66666666666667" style="1"/>
+    <col min="6" max="6" width="16" style="1" customWidth="1"/>
+    <col min="7" max="16371" width="8.66666666666667" style="1"/>
     <col min="16372" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1050,25 +1057,31 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
@@ -1084,39 +1097,48 @@
       <c r="E3" s="3">
         <v>-1</v>
       </c>
+      <c r="F3" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:5">
+    <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Cfg/StateDataCfg.xlsx
+++ b/Assets/Resources/Cfg/StateDataCfg.xlsx
@@ -75,10 +75,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -89,6 +89,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
@@ -96,8 +157,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -111,8 +181,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,100 +227,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,43 +254,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,126 +428,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -429,12 +435,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,11 +459,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -471,8 +492,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,30 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -531,17 +537,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,10 +551,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,133 +563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1026,7 +1026,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>12</v>
@@ -1123,7 +1123,7 @@
     </row>
     <row r="5" s="1" customFormat="1" spans="1:6">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>16</v>

--- a/Assets/Resources/Cfg/StateDataCfg.xlsx
+++ b/Assets/Resources/Cfg/StateDataCfg.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>ID</t>
   </si>
@@ -34,6 +34,9 @@
     <t>ReduceOverTime</t>
   </si>
   <si>
+    <t>ShowStack</t>
+  </si>
+  <si>
     <t>//状态ID</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
   </si>
   <si>
     <t>//是否每回合递减</t>
+  </si>
+  <si>
+    <t>//是否显示层数</t>
   </si>
   <si>
     <t>灵体</t>
@@ -76,9 +82,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,6 +97,80 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -99,32 +179,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -136,76 +193,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,8 +209,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,6 +219,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -254,19 +260,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,163 +440,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,13 +454,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,30 +480,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,16 +508,25 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -545,16 +540,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,133 +569,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1023,13 +1029,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
@@ -1037,11 +1043,12 @@
     <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="16371" width="8.66666666666667" style="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="16371" width="8.66666666666667" style="1"/>
     <col min="16372" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,28 +1067,34 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
@@ -1100,44 +1113,53 @@
       <c r="F3" s="3">
         <v>-1</v>
       </c>
+      <c r="G3" s="3">
+        <v>-1</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:6">
+    <row r="5" s="1" customFormat="1" spans="1:7">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Resources/Cfg/StateDataCfg.xlsx
+++ b/Assets/Resources/Cfg/StateDataCfg.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koros\OneDrive\Unity Projects\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CCDA77-F129-42E5-86EC-3A2F5782E7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="8505" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -77,38 +71,37 @@
   </si>
   <si>
     <t>恐惧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image\UIImage\StateImg\KongJu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Debuff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>造成的伤害减少30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>焕发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Image\UIImage\StateImg\HuanFa</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Buff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得的护甲增加30%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,22 +110,158 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,18 +270,204 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -160,9 +475,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -175,21 +732,65 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -447,32 +1048,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="8.35546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.35546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.35546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.35546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.35833333333333" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.3583333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.1416666666667" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.3583333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.3583333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.640625" style="1" customWidth="1"/>
-    <col min="8" max="16371" width="8.640625" style="1"/>
+    <col min="7" max="7" width="16.6416666666667" style="1" customWidth="1"/>
+    <col min="8" max="16371" width="8.64166666666667" style="1"/>
     <col min="16372" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -495,7 +1096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -518,7 +1119,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
@@ -541,7 +1142,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -564,7 +1165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -587,7 +1188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -598,12 +1199,21 @@
         <v>23</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assets/Resources/Cfg/StateDataCfg.xlsx
+++ b/Assets/Resources/Cfg/StateDataCfg.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F149A4D-2717-45A8-932A-5EB092D7CDA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE9523-A8FB-48CF-B7C7-E531FD26A189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3394" yWindow="3051" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>ID</t>
   </si>
@@ -122,6 +122,18 @@
   </si>
   <si>
     <t>获得的护甲减少30%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二刀流</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image\UIImage\StateImg\DoubleBlade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每回合的第一张体术牌触发两次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -677,9 +689,32 @@
         <v>1</v>
       </c>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>1006</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Cfg/StateDataCfg.xlsx
+++ b/Assets/Resources/Cfg/StateDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75AE9523-A8FB-48CF-B7C7-E531FD26A189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75ED934-6631-4F9D-8E20-7957AACCCE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3394" yWindow="3051" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2263" yWindow="2263" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -134,6 +134,18 @@
   </si>
   <si>
     <t>每回合的第一张体术牌触发两次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>起势</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Image\UIImage\StateImg\QiShi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发连斩时消耗一层，效果额外触发一次</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -712,6 +724,29 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Cfg/StateDataCfg.xlsx
+++ b/Assets/Resources/Cfg/StateDataCfg.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Slay-the-Touhou-RE\Assets\Resources\Cfg\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75ED934-6631-4F9D-8E20-7957AACCCE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5149B73B-0503-4CD7-A671-6C46E6E2B952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2263" yWindow="2263" windowWidth="28800" windowHeight="15463" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9090" yWindow="1935" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
@@ -109,10 +109,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>死亡时对击杀者赋予value层重伤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>重伤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -146,6 +142,18 @@
   </si>
   <si>
     <t>触发连斩时消耗一层，效果额外触发一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时对击杀者赋予2层重伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>返魂碟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时消耗一层返魂碟，复活并获得2倍HP上限</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -498,26 +506,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.35546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.35546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.35546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="18.35546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.640625" style="1" customWidth="1"/>
-    <col min="8" max="16371" width="8.640625" style="1"/>
+    <col min="7" max="7" width="16.625" style="1" customWidth="1"/>
+    <col min="8" max="16371" width="8.625" style="1"/>
     <col min="16372" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -540,7 +548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -563,7 +571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>-1</v>
       </c>
@@ -586,7 +594,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1001</v>
       </c>
@@ -609,7 +617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1002</v>
       </c>
@@ -632,7 +640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1003</v>
       </c>
@@ -655,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1004</v>
       </c>
@@ -669,7 +677,7 @@
         <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="F7" s="1">
         <v>0</v>
@@ -678,22 +686,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>1005</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
@@ -701,21 +709,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1006</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -724,26 +732,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>1007</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1008</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1">
         <v>1</v>
       </c>
     </row>
